--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudio\Desktop\AIEP\TALLER DE PROGRAMACIÓN PARA ANÁLISIS DE DATOS\Semana_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FamiliaCifuentesDonoso/trabajo zoologico/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBAE7ED-3706-43CE-B666-268E52064C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCCF367-714A-274B-AF51-51920092DD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20DAE7A7-1F84-4DB7-A77B-AE80BDC5B06F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{20DAE7A7-1F84-4DB7-A77B-AE80BDC5B06F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,89 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="121">
   <si>
     <t>N_IDENTIFICACION</t>
   </si>
   <si>
-    <t xml:space="preserve"> NOMBRE_ANIMAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NOMBRE_CIENTIFICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ESTATUS_CONSERVACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SEXO_ANIMAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ANIO_NACIMIENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PESO_ANIMAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ALTURA_ANIMAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID_FAMILIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NOMBRE_FAMILIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID_ESPECIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NOMBRE_ESPECIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID_CONTINENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NOMBRE_CONTINENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID_CONT_PAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID_PAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NOMBRE_PAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUT_ENCARGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NOMBRE_ENCARGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> APELLIDO_ENCARGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SEXO_ENCARGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID_CIUDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NOMBRE_CIUDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID_ZOOLOGICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NOMBRE_ZOOLOGICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TAMANO_ZOOLOGICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PRESUPUESTO_ANUAL</t>
-  </si>
-  <si>
     <t xml:space="preserve"> JAGUAR</t>
   </si>
   <si>
@@ -219,6 +141,264 @@
   </si>
   <si>
     <t xml:space="preserve"> ZOOLOGICO DE SYDNEY</t>
+  </si>
+  <si>
+    <t>NOMBRE_ANIMAL</t>
+  </si>
+  <si>
+    <t>NOMBRE_CIENTIFICO</t>
+  </si>
+  <si>
+    <t>ESTATUS_CONSERVACION</t>
+  </si>
+  <si>
+    <t>SEXO_ANIMAL</t>
+  </si>
+  <si>
+    <t>ANIO_NACIMIENTO</t>
+  </si>
+  <si>
+    <t>PESO_ANIMAL</t>
+  </si>
+  <si>
+    <t>ALTURA_ANIMAL</t>
+  </si>
+  <si>
+    <t>ID_FAMILIA</t>
+  </si>
+  <si>
+    <t>NOMBRE_FAMILIA</t>
+  </si>
+  <si>
+    <t>RUT_ENCARGADO</t>
+  </si>
+  <si>
+    <t>NOMBRE_ENCARGADO</t>
+  </si>
+  <si>
+    <t>APELLIDO_ENCARGADO</t>
+  </si>
+  <si>
+    <t>SEXO_ENCARGADO</t>
+  </si>
+  <si>
+    <t>ID_CIUDAD</t>
+  </si>
+  <si>
+    <t>NOMBRE_CIUDAD</t>
+  </si>
+  <si>
+    <t>ID_ZOOLOGICO</t>
+  </si>
+  <si>
+    <t>NOMBRE_ZOOLOGICO</t>
+  </si>
+  <si>
+    <t>TAMANO_ZOOLOGICO</t>
+  </si>
+  <si>
+    <t>PRESUPUESTO_ANUAL</t>
+  </si>
+  <si>
+    <t>ID_ESPECIE</t>
+  </si>
+  <si>
+    <t>NOMBRE_ESPECIE</t>
+  </si>
+  <si>
+    <t>ID_CONTINENTE</t>
+  </si>
+  <si>
+    <t>NOMBRE_CONTINENTE</t>
+  </si>
+  <si>
+    <t>ID_CONT_PAIS</t>
+  </si>
+  <si>
+    <t>NOMBRE_PAIS</t>
+  </si>
+  <si>
+    <t>ID_PAIS</t>
+  </si>
+  <si>
+    <t>León</t>
+  </si>
+  <si>
+    <t>Panthera leo</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>Felidae</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>18755364-1</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>González</t>
+  </si>
+  <si>
+    <t>López</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Zoológico Madrid</t>
+  </si>
+  <si>
+    <t>Lobo gris</t>
+  </si>
+  <si>
+    <t>Canis lupus</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Canidae</t>
+  </si>
+  <si>
+    <t>América</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>24987532-8</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Martínez</t>
+  </si>
+  <si>
+    <t>Fernández</t>
+  </si>
+  <si>
+    <t>Ciudad de México</t>
+  </si>
+  <si>
+    <t>Zoológico Ciudad de México</t>
+  </si>
+  <si>
+    <t>Tortuga verde</t>
+  </si>
+  <si>
+    <t>Chelonia mydas</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Reptilia</t>
+  </si>
+  <si>
+    <t>Tortuga marina</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>33578921-4</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Rodríguez</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>Zoológico Bogotá</t>
+  </si>
+  <si>
+    <t>Águila real</t>
+  </si>
+  <si>
+    <t>Aquila chrysaetos</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>Avian</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>40213569-5</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Zoológico Buenos Aires</t>
+  </si>
+  <si>
+    <t>Nutria europea</t>
+  </si>
+  <si>
+    <t>Lutra lutra</t>
+  </si>
+  <si>
+    <t>VU</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>Mustelidae</t>
+  </si>
+  <si>
+    <t>Perú</t>
+  </si>
+  <si>
+    <t>17789456-0</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Zoológico Lima</t>
   </si>
 </sst>
 </file>
@@ -585,371 +765,757 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0040AA13-37F1-420F-92B6-C366A1667C94}">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="21" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1459</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G2" s="1">
+        <v>85</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="1">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2" s="1">
+        <v>4</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1004</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>5200</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1460</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G3" s="1">
+        <v>160</v>
+      </c>
+      <c r="H3" s="1">
+        <v>210</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="1">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="1">
+        <v>5</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1005</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>5300</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1461</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G4" s="1">
+        <v>70</v>
+      </c>
+      <c r="H4" s="1">
+        <v>150</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K4" s="1">
+        <v>6</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="O4" s="1">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="R4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2">
+      <c r="S4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="1">
+        <v>6</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1006</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>5400</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <v>2015</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" t="s">
+        <v>71</v>
+      </c>
+      <c r="U5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z5">
+        <v>5000</v>
+      </c>
+      <c r="AA5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>2017</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" t="s">
+        <v>82</v>
+      </c>
+      <c r="S6" t="s">
+        <v>83</v>
+      </c>
+      <c r="T6" t="s">
+        <v>84</v>
+      </c>
+      <c r="U6" t="s">
+        <v>91</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z6">
+        <v>6000</v>
+      </c>
+      <c r="AA6">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7">
+        <v>2000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" t="s">
+        <v>96</v>
+      </c>
+      <c r="S7" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U7" t="s">
+        <v>64</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z7">
+        <v>4000</v>
+      </c>
+      <c r="AA7">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8">
         <v>2018</v>
       </c>
-      <c r="G2">
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>106</v>
+      </c>
+      <c r="R8" t="s">
+        <v>107</v>
+      </c>
+      <c r="S8" t="s">
+        <v>108</v>
+      </c>
+      <c r="T8" t="s">
         <v>85</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2">
+      <c r="U8" t="s">
+        <v>91</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-      <c r="P2">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2">
-        <v>4</v>
-      </c>
-      <c r="W2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2">
-        <v>1004</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2">
-        <v>5200</v>
-      </c>
-      <c r="AA2">
-        <v>1050000</v>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z8">
+        <v>7000</v>
+      </c>
+      <c r="AA8">
+        <v>1500000</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1460</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3">
-        <v>2019</v>
-      </c>
-      <c r="G3">
-        <v>160</v>
-      </c>
-      <c r="H3">
-        <v>210</v>
-      </c>
-      <c r="I3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9">
+        <v>2016</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3">
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9">
         <v>5</v>
       </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3">
+      <c r="P9">
         <v>5</v>
       </c>
-      <c r="P3">
+      <c r="Q9" t="s">
+        <v>116</v>
+      </c>
+      <c r="R9" t="s">
+        <v>117</v>
+      </c>
+      <c r="S9" t="s">
+        <v>118</v>
+      </c>
+      <c r="T9" t="s">
+        <v>72</v>
+      </c>
+      <c r="U9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9">
         <v>5</v>
       </c>
-      <c r="Q3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3">
-        <v>5</v>
-      </c>
-      <c r="W3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X3">
-        <v>1005</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3">
-        <v>5300</v>
-      </c>
-      <c r="AA3">
-        <v>1100000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1461</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4">
-        <v>2020</v>
-      </c>
-      <c r="G4">
-        <v>70</v>
-      </c>
-      <c r="H4">
-        <v>150</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="L4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4">
-        <v>6</v>
-      </c>
-      <c r="P4">
-        <v>6</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R4" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" t="s">
-        <v>58</v>
-      </c>
-      <c r="U4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4">
-        <v>6</v>
-      </c>
-      <c r="W4" t="s">
-        <v>59</v>
-      </c>
-      <c r="X4">
-        <v>1006</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z4">
-        <v>5400</v>
-      </c>
-      <c r="AA4">
-        <v>1150000</v>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z9">
+        <v>4500</v>
+      </c>
+      <c r="AA9">
+        <v>900000</v>
       </c>
     </row>
   </sheetData>
